--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -570,10 +594,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -617,28 +641,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -663,28 +687,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -888,10 +912,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -935,28 +959,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="3">
+      <c r="A28" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="C28" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="D28" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -981,28 +1005,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="3">
+      <c r="I30" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1119,10 +1143,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1166,28 +1190,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="3">
+      <c r="A36" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="B36" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="C36" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="D36" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="E36" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="3">
+      <c r="F36" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="3">
+      <c r="G36" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="3">
+      <c r="H36" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1212,28 +1236,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="C38" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="D38" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="3">
+      <c r="I38" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1524,10 +1548,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1571,28 +1595,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1617,28 +1641,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1813,10 +1837,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1860,28 +1884,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="3">
+      <c r="A60" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1906,28 +1930,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="3">
+      <c r="C62" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="3">
+      <c r="D62" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="3">
+      <c r="I62" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2102,10 +2126,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2149,28 +2173,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2195,28 +2219,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2275,10 +2299,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2322,28 +2346,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="3">
+      <c r="A76" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2368,28 +2392,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="C78" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="3">
+      <c r="D78" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="3">
+      <c r="I78" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2593,10 +2617,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2640,28 +2664,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2686,28 +2710,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2824,10 +2848,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2871,28 +2895,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="3">
+      <c r="A95" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2917,28 +2941,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="3">
+      <c r="C97" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="3">
+      <c r="D97" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="3">
+      <c r="I97" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2997,10 +3021,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="3" t="s">
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3044,28 +3068,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3090,28 +3114,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3170,10 +3194,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J105" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3217,28 +3241,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="3">
+      <c r="A107" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="3">
+      <c r="C107" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D107" t="s" s="3">
+      <c r="D107" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3263,28 +3287,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="C109" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="3">
+      <c r="D109" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="3">
+      <c r="I109" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3430,10 +3454,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="K114" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3477,28 +3501,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="3">
+      <c r="A116" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3523,28 +3547,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="3">
+      <c r="C118" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="3">
+      <c r="D118" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="3">
+      <c r="I118" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3922,10 +3946,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="3" t="s">
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3969,28 +3993,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
+      <c r="C133" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="3">
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4015,28 +4039,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4153,10 +4177,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="J139" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="3" t="s">
+      <c r="K139" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4200,28 +4224,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="3">
+      <c r="A141" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4246,28 +4270,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="3">
+      <c r="C143" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="3">
+      <c r="D143" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="3">
+      <c r="I143" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4558,10 +4582,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="J153" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K153" s="3" t="s">
+      <c r="K153" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4605,28 +4629,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="3">
+      <c r="A155" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="3">
+      <c r="B155" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="3">
+      <c r="C155" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D155" t="s" s="3">
+      <c r="D155" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="3">
+      <c r="E155" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="3">
+      <c r="F155" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="3">
+      <c r="G155" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="3">
+      <c r="H155" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4651,28 +4675,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="3">
+      <c r="C157" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="3">
+      <c r="D157" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="3">
+      <c r="I157" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4818,10 +4842,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="J162" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="3" t="s">
+      <c r="K162" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4865,28 +4889,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="3">
+      <c r="A164" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4911,28 +4935,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="3">
+      <c r="C166" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="3">
+      <c r="D166" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="3">
+      <c r="I166" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5194,10 +5218,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="J175" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="3" t="s">
+      <c r="K175" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5241,28 +5265,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5287,28 +5311,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5599,10 +5623,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="J189" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K189" s="3" t="s">
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5646,28 +5670,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
+      <c r="C191" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D191" t="s" s="3">
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5692,28 +5716,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5801,10 +5825,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J196" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="3" t="s">
+      <c r="K196" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
